--- a/Last und Performancetest.xlsx
+++ b/Last und Performancetest.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdi Güllübag\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qagmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>RC 2.28</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>count second run</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -313,6 +316,9 @@
                 <c:pt idx="0">
                   <c:v>7007</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>5469</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -371,6 +377,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -433,6 +442,9 @@
                 <c:pt idx="0">
                   <c:v>3482</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2926</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -493,6 +505,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,6 +570,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,6 +666,9 @@
                       <c:pt idx="0">
                         <c:v>115388</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80767</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -727,6 +748,9 @@
                       <c:pt idx="0">
                         <c:v>71036</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>49911</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -806,6 +830,9 @@
                       <c:pt idx="0">
                         <c:v>37440</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7882</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -884,6 +911,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4477</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -966,6 +996,9 @@
                       <c:pt idx="0">
                         <c:v>40540</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>35542</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1047,6 +1080,9 @@
                       <c:pt idx="0">
                         <c:v>29915</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25873</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1128,6 +1164,9 @@
                       <c:pt idx="0">
                         <c:v>24250</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21307</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1208,6 +1247,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17478</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1291,6 +1333,9 @@
                       <c:pt idx="0">
                         <c:v>13158</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16036</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1372,6 +1417,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>6142</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5983</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1673,6 +1721,9 @@
                 <c:pt idx="0">
                   <c:v>115388</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>80767</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1734,6 +1785,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>37440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7882</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1799,6 +1853,9 @@
                 <c:pt idx="0">
                   <c:v>40540</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>35542</c:v>
+                </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
@@ -1862,6 +1919,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>24250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21307</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1927,6 +1987,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>13158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16036</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2021,6 +2084,9 @@
                       <c:pt idx="0">
                         <c:v>7007</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5469</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2100,6 +2166,9 @@
                       <c:pt idx="0">
                         <c:v>71036</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>49911</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2179,6 +2248,9 @@
                       <c:pt idx="0">
                         <c:v>555</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>433</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2257,6 +2329,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4477</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2339,6 +2414,9 @@
                       <c:pt idx="0">
                         <c:v>3482</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2926</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2420,6 +2498,9 @@
                       <c:pt idx="0">
                         <c:v>29915</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25873</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2501,6 +2582,9 @@
                       <c:pt idx="0">
                         <c:v>1743</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1389</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2581,6 +2665,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17478</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2664,6 +2751,9 @@
                       <c:pt idx="0">
                         <c:v>1227</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>721</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2745,6 +2835,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>6142</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5983</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3044,6 +3137,9 @@
                 <c:pt idx="0">
                   <c:v>7007</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>5469</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3102,6 +3198,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,6 +3263,9 @@
                 <c:pt idx="0">
                   <c:v>3482</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2926</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3224,6 +3326,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,6 +3391,9 @@
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,6 +3487,9 @@
                       <c:pt idx="0">
                         <c:v>115388</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80767</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3458,6 +3569,9 @@
                       <c:pt idx="0">
                         <c:v>71036</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>49911</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3537,6 +3651,9 @@
                       <c:pt idx="0">
                         <c:v>37440</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7882</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3615,6 +3732,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4477</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3697,6 +3817,9 @@
                       <c:pt idx="0">
                         <c:v>40540</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>35542</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3778,6 +3901,9 @@
                       <c:pt idx="0">
                         <c:v>29915</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>25873</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3859,6 +3985,9 @@
                       <c:pt idx="0">
                         <c:v>24250</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>21307</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3939,6 +4068,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>17478</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13576</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4022,6 +4154,9 @@
                       <c:pt idx="0">
                         <c:v>13158</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16036</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4103,6 +4238,9 @@
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>6142</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5983</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6321,7 +6459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -6334,10 +6472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6457,10 +6595,60 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>5469</v>
+      </c>
+      <c r="C3">
+        <v>80767</v>
+      </c>
+      <c r="D3">
+        <v>49911</v>
+      </c>
+      <c r="E3">
+        <v>433</v>
+      </c>
+      <c r="F3">
+        <v>7882</v>
+      </c>
+      <c r="G3">
+        <v>4477</v>
+      </c>
+      <c r="H3">
+        <v>2926</v>
+      </c>
+      <c r="I3">
+        <v>35542</v>
+      </c>
+      <c r="J3">
+        <v>25873</v>
+      </c>
+      <c r="K3">
+        <v>1389</v>
+      </c>
+      <c r="L3">
+        <v>21307</v>
+      </c>
+      <c r="M3">
+        <v>13576</v>
+      </c>
+      <c r="N3">
+        <v>721</v>
+      </c>
+      <c r="O3">
+        <v>16036</v>
+      </c>
+      <c r="P3">
+        <v>5983</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Last und Performancetest.xlsx
+++ b/Last und Performancetest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qagmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{602360D6-05F8-4F62-9B09-59D42605CAF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>RC 2.28</t>
   </si>
@@ -41,9 +42,6 @@
   </si>
   <si>
     <t>Bremen - Avrg</t>
-  </si>
-  <si>
-    <t>RC 2.30</t>
   </si>
   <si>
     <t>Berlin - Min</t>
@@ -124,13 +122,28 @@
     <t>count second run</t>
   </si>
   <si>
-    <t>a</t>
+    <t>RC 2.29.1</t>
+  </si>
+  <si>
+    <t>RC 2.29.2</t>
+  </si>
+  <si>
+    <t>RC 2.30</t>
+  </si>
+  <si>
+    <t>RC 2.31</t>
+  </si>
+  <si>
+    <t>RC 2.32</t>
+  </si>
+  <si>
+    <t>RC 2.33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,9 +305,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RC'!$A$2:$A$4</c:f>
+              <c:f>'RC'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>RC 2.28</c:v>
                 </c:pt>
@@ -302,6 +315,12 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RC 2.29.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RC 2.29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RC 2.30</c:v>
                 </c:pt>
               </c:strCache>
@@ -318,6 +337,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,9 +376,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RC'!$A$2:$A$4</c:f>
+              <c:f>'RC'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>RC 2.28</c:v>
                 </c:pt>
@@ -364,6 +386,12 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RC 2.29.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RC 2.29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RC 2.30</c:v>
                 </c:pt>
               </c:strCache>
@@ -380,6 +408,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,9 +449,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RC'!$A$2:$A$4</c:f>
+              <c:f>'RC'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>RC 2.28</c:v>
                 </c:pt>
@@ -428,6 +459,12 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RC 2.29.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RC 2.29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RC 2.30</c:v>
                 </c:pt>
               </c:strCache>
@@ -444,6 +481,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,9 +522,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RC'!$A$2:$A$4</c:f>
+              <c:f>'RC'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>RC 2.28</c:v>
                 </c:pt>
@@ -492,6 +532,12 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RC 2.29.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RC 2.29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RC 2.30</c:v>
                 </c:pt>
               </c:strCache>
@@ -508,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,9 +596,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RC'!$A$2:$A$4</c:f>
+              <c:f>'RC'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>RC 2.28</c:v>
                 </c:pt>
@@ -557,6 +606,12 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>RC 2.29.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>RC 2.29.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>RC 2.30</c:v>
                 </c:pt>
               </c:strCache>
@@ -572,6 +627,9 @@
                   <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
@@ -633,12 +691,12 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -646,6 +704,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -668,6 +732,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>80767</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>71196</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -715,12 +782,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -728,6 +795,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -750,6 +823,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>49911</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41209</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -797,12 +873,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -810,6 +886,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -832,6 +914,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>7882</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7138</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -879,12 +964,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -892,6 +977,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -914,6 +1005,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>4477</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2118</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -963,12 +1057,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -976,6 +1070,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -998,6 +1098,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>35542</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30025</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1047,12 +1150,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -1060,6 +1163,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1082,6 +1191,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>25873</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20606</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1131,12 +1243,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -1144,6 +1256,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1166,6 +1284,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>21307</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19959</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1215,12 +1336,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -1228,6 +1349,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1250,6 +1377,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>13576</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10648</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1300,12 +1430,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -1313,6 +1443,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1335,6 +1471,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>16036</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>14074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1385,12 +1524,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'RC'!$A$2:$A$4</c15:sqref>
+                          <c15:sqref>'RC'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>RC 2.28</c:v>
                       </c:pt>
@@ -1398,6 +1537,12 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>RC 2.29.1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>RC 2.29.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
                         <c:v>RC 2.30</c:v>
                       </c:pt>
                     </c:strCache>
@@ -1420,6 +1565,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5983</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7836</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1706,7 +1854,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1723,6 +1871,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>80767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71196</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1771,7 +1922,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1788,6 +1939,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7882</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7138</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1838,7 +1992,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1855,6 +2009,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30025</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1905,7 +2062,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1922,6 +2079,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19959</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1973,7 +2133,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1990,6 +2150,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14074</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -2064,7 +2227,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2086,6 +2249,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5469</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5446</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2146,7 +2312,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2168,6 +2334,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>49911</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41209</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2228,7 +2397,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2250,6 +2419,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>433</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>515</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2310,7 +2482,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2332,6 +2504,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>4477</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2118</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2394,7 +2569,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2416,6 +2591,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>2926</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2923</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2478,7 +2656,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2500,6 +2678,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>25873</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20606</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2562,7 +2743,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2584,6 +2765,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>1389</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1287</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2646,7 +2830,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2668,6 +2852,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>13576</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10648</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2731,7 +2918,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2752,6 +2939,9 @@
                         <c:v>1227</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>721</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>721</c:v>
                       </c:pt>
                     </c:numCache>
@@ -2816,7 +3006,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2838,6 +3028,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5983</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7836</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3123,7 +3316,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3139,6 +3332,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3381,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3201,6 +3397,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,7 +3448,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3265,6 +3464,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,7 +3515,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3329,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3378,7 +3583,7 @@
                   <c:v>RC 2.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RC 2.30</c:v>
+                  <c:v>RC 2.29.1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3393,6 +3598,9 @@
                   <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>721</c:v>
                 </c:pt>
               </c:numCache>
@@ -3467,7 +3675,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3489,6 +3697,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>80767</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>71196</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3549,7 +3760,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3571,6 +3782,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>49911</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41209</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3631,7 +3845,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3653,6 +3867,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>7882</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7138</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3713,7 +3930,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3735,6 +3952,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>4477</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2118</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3797,7 +4017,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3819,6 +4039,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>35542</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30025</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3881,7 +4104,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3903,6 +4126,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>25873</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>20606</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3965,7 +4191,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3987,6 +4213,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>21307</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>19959</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4049,7 +4278,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4071,6 +4300,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>13576</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10648</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4134,7 +4366,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4156,6 +4388,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>16036</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>14074</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4219,7 +4454,7 @@
                         <c:v>RC 2.29</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>RC 2.30</c:v>
+                        <c:v>RC 2.29.1</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4241,6 +4476,9 @@
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>5983</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7836</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6456,11 +6694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6471,11 +6709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6496,13 +6734,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6514,31 +6752,31 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -6643,12 +6881,302 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>5446</v>
+      </c>
+      <c r="C4">
+        <v>71196</v>
+      </c>
+      <c r="D4">
+        <v>41209</v>
+      </c>
+      <c r="E4">
+        <v>515</v>
+      </c>
+      <c r="F4">
+        <v>7138</v>
+      </c>
+      <c r="G4">
+        <v>2118</v>
+      </c>
+      <c r="H4">
+        <v>2923</v>
+      </c>
+      <c r="I4">
+        <v>30025</v>
+      </c>
+      <c r="J4">
+        <v>20606</v>
+      </c>
+      <c r="K4">
+        <v>1287</v>
+      </c>
+      <c r="L4">
+        <v>19959</v>
+      </c>
+      <c r="M4">
+        <v>10648</v>
+      </c>
+      <c r="N4">
+        <v>721</v>
+      </c>
+      <c r="O4">
+        <v>14074</v>
+      </c>
+      <c r="P4">
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4903</v>
+      </c>
+      <c r="C5">
+        <v>78181</v>
+      </c>
+      <c r="D5">
+        <v>44703</v>
+      </c>
+      <c r="E5">
+        <v>358</v>
+      </c>
+      <c r="F5">
+        <v>6065</v>
+      </c>
+      <c r="G5">
+        <v>2519</v>
+      </c>
+      <c r="H5">
+        <v>2456</v>
+      </c>
+      <c r="I5">
+        <v>37387</v>
+      </c>
+      <c r="J5">
+        <v>22319</v>
+      </c>
+      <c r="K5">
+        <v>1240</v>
+      </c>
+      <c r="L5">
+        <v>21870</v>
+      </c>
+      <c r="M5">
+        <v>12008</v>
+      </c>
+      <c r="N5">
+        <v>849</v>
+      </c>
+      <c r="O5">
+        <v>12859</v>
+      </c>
+      <c r="P5">
+        <v>7855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>6055</v>
+      </c>
+      <c r="C6">
+        <v>82459</v>
+      </c>
+      <c r="D6">
+        <v>52605</v>
+      </c>
+      <c r="E6">
+        <v>426</v>
+      </c>
+      <c r="F6">
+        <v>5729</v>
+      </c>
+      <c r="G6">
+        <v>2755</v>
+      </c>
+      <c r="H6">
+        <v>3638</v>
+      </c>
+      <c r="I6">
+        <v>41280</v>
+      </c>
+      <c r="J6">
+        <v>30343</v>
+      </c>
+      <c r="K6">
+        <v>1313</v>
+      </c>
+      <c r="L6">
+        <v>21293</v>
+      </c>
+      <c r="M6">
+        <v>12321</v>
+      </c>
+      <c r="N6">
+        <v>678</v>
+      </c>
+      <c r="O6">
+        <v>14157</v>
+      </c>
+      <c r="P6">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>8349</v>
+      </c>
+      <c r="C7">
+        <v>97332</v>
+      </c>
+      <c r="D7">
+        <v>71942</v>
+      </c>
+      <c r="E7">
+        <v>484</v>
+      </c>
+      <c r="F7">
+        <v>8147</v>
+      </c>
+      <c r="G7">
+        <v>5360</v>
+      </c>
+      <c r="H7">
+        <v>4894</v>
+      </c>
+      <c r="I7">
+        <v>46177</v>
+      </c>
+      <c r="J7">
+        <v>38899</v>
+      </c>
+      <c r="K7">
+        <v>2030</v>
+      </c>
+      <c r="L7">
+        <v>27075</v>
+      </c>
+      <c r="M7">
+        <v>21124</v>
+      </c>
+      <c r="N7">
+        <v>941</v>
+      </c>
+      <c r="O7">
+        <v>15933</v>
+      </c>
+      <c r="P7">
+        <v>6556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>7865</v>
+      </c>
+      <c r="C8">
+        <v>87029</v>
+      </c>
+      <c r="D8">
+        <v>59550</v>
+      </c>
+      <c r="E8">
+        <v>474</v>
+      </c>
+      <c r="F8">
+        <v>8344</v>
+      </c>
+      <c r="G8">
+        <v>4388</v>
+      </c>
+      <c r="H8">
+        <v>3424</v>
+      </c>
+      <c r="I8">
+        <v>40115</v>
+      </c>
+      <c r="J8">
+        <v>29621</v>
+      </c>
+      <c r="K8">
+        <v>2871</v>
+      </c>
+      <c r="L8">
+        <v>20246</v>
+      </c>
+      <c r="M8">
+        <v>14776</v>
+      </c>
+      <c r="N8">
+        <v>1096</v>
+      </c>
+      <c r="O8">
+        <v>18324</v>
+      </c>
+      <c r="P8">
+        <v>10764</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" t="s">
-        <v>32</v>
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>7698</v>
+      </c>
+      <c r="C9">
+        <v>96926</v>
+      </c>
+      <c r="D9">
+        <v>76280</v>
+      </c>
+      <c r="E9">
+        <v>555</v>
+      </c>
+      <c r="F9">
+        <v>12108</v>
+      </c>
+      <c r="G9">
+        <v>9594</v>
+      </c>
+      <c r="H9">
+        <v>4237</v>
+      </c>
+      <c r="I9">
+        <v>43351</v>
+      </c>
+      <c r="J9">
+        <v>36679</v>
+      </c>
+      <c r="K9">
+        <v>1672</v>
+      </c>
+      <c r="L9">
+        <v>26465</v>
+      </c>
+      <c r="M9">
+        <v>19212</v>
+      </c>
+      <c r="N9">
+        <v>1234</v>
+      </c>
+      <c r="O9">
+        <v>15002</v>
+      </c>
+      <c r="P9">
+        <v>10793</v>
       </c>
     </row>
   </sheetData>
@@ -6657,7 +7185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6668,29 +7196,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6698,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6707,40 +7235,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
-    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A11" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Last und Performancetest.xlsx
+++ b/Last und Performancetest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qagmm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{602360D6-05F8-4F62-9B09-59D42605CAF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7145012D-D00D-4917-A0B4-0C4588A525D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17940" windowHeight="10440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>RC 2.28</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>RC 2.33</t>
+  </si>
+  <si>
+    <t>RC 2.35</t>
   </si>
 </sst>
 </file>
@@ -6710,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,6 +7182,56 @@
         <v>10793</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>7871</v>
+      </c>
+      <c r="C10">
+        <v>95585</v>
+      </c>
+      <c r="D10">
+        <v>81413</v>
+      </c>
+      <c r="E10">
+        <v>731</v>
+      </c>
+      <c r="F10">
+        <v>6741</v>
+      </c>
+      <c r="G10">
+        <v>6056</v>
+      </c>
+      <c r="H10">
+        <v>4001</v>
+      </c>
+      <c r="I10">
+        <v>47176</v>
+      </c>
+      <c r="J10">
+        <v>43641</v>
+      </c>
+      <c r="K10">
+        <v>1943</v>
+      </c>
+      <c r="L10">
+        <v>24077</v>
+      </c>
+      <c r="M10">
+        <v>20121</v>
+      </c>
+      <c r="N10">
+        <v>1196</v>
+      </c>
+      <c r="O10">
+        <v>17591</v>
+      </c>
+      <c r="P10">
+        <v>11593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
